--- a/data/trans_camb/IP18A03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A03-Edad-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>-16,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,81</t>
+          <t>-15,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>-16,19</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 21,84</t>
+          <t>-29,37; -3,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 28,93</t>
+          <t>-31,59; 0,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 19,27</t>
+          <t>-26,59; -5,63</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>-33,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>-30,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>-32,38%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 48,65</t>
+          <t>-57,98; -6,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 59,15</t>
+          <t>-58,41; 0,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 40,48</t>
+          <t>-52,63; -11,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,58</t>
+          <t>-38,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-30,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,86</t>
+          <t>-34,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 7,05</t>
+          <t>-9,34; 5,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 6,22</t>
+          <t>-4,9; 9,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,26; 4,1</t>
+          <t>-51,74; -21,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 12,19</t>
+          <t>-5,89; 9,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 9,13</t>
+          <t>-1,15; 13,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 13,08</t>
+          <t>-43,78; -14,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 7,88</t>
+          <t>-5,59; 4,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 5,13</t>
+          <t>-1,75; 9,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 3,01</t>
+          <t>-44,57; -24,65</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,99%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,38%</t>
+          <t>-54,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,88%</t>
+          <t>-46,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>-0,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-6,74%</t>
+          <t>-50,82%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 10,3</t>
+          <t>-12,9; 7,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 8,82</t>
+          <t>-6,53; 14,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 5,6</t>
+          <t>-72,68; -30,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 18,47</t>
+          <t>-8,58; 15,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 13,75</t>
+          <t>-1,64; 22,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,26; 19,59</t>
+          <t>-65,29; -21,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 11,12</t>
+          <t>-7,92; 6,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 7,35</t>
+          <t>-2,41; 14,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 4,25</t>
+          <t>-65,58; -36,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>-42,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>-33,73</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>-38,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 5,29</t>
+          <t>-5,85; 7,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 9,38</t>
+          <t>-7,45; 6,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 20,08</t>
+          <t>-53,76; -29,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 9,64</t>
+          <t>-1,86; 12,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 13,76</t>
+          <t>-4,91; 9,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 15,72</t>
+          <t>-46,59; -17,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 4,38</t>
+          <t>-1,74; 7,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 9,09</t>
+          <t>-4,43; 5,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 15,65</t>
+          <t>-47,72; -28,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,77%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>-0,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>-58,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>-47,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>-54,01%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 7,93</t>
+          <t>-7,74; 10,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 14,17</t>
+          <t>-9,71; 8,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 29,18</t>
+          <t>-72,17; -41,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 15,76</t>
+          <t>-2,2; 18,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 22,8</t>
+          <t>-6,54; 13,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 25,09</t>
+          <t>-64,19; -24,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 6,81</t>
+          <t>-2,38; 11,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 14,03</t>
+          <t>-5,93; 7,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 23,54</t>
+          <t>-65,4; -39,93</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>-33,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>-26,66</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>-30,22</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 10,88</t>
+          <t>-39,88; -25,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 13,51</t>
+          <t>-35,03; -17,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 9,8</t>
+          <t>-36,18; -23,79</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>-51,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>-42,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>-47,51%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 17,12</t>
+          <t>-61,68; -39,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 21,91</t>
+          <t>-54,7; -28,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 15,66</t>
+          <t>-56,47; -37,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A03-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>12,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-16,3</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,68</t>
+          <t>-12,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-16,19</t>
+          <t>-10,42</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 15,05</t>
+          <t>1,39; 22,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 7,11</t>
+          <t>-9,16; 10,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,37; -3,24</t>
+          <t>-23,25; 11,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 7,49</t>
+          <t>-8,4; 12,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 4,69</t>
+          <t>-18,13; 2,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,59; 0,35</t>
+          <t>-27,8; 6,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 8,53</t>
+          <t>-0,02; 14,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 3,35</t>
+          <t>-9,79; 4,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-26,59; -5,63</t>
+          <t>-21,62; 2,77</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,08%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-33,89%</t>
+          <t>-23,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>-16,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-30,19%</t>
+          <t>-28,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,25%</t>
+          <t>-7,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-32,38%</t>
+          <t>-26,25%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 33,93</t>
+          <t>3,27; 81,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 16,1</t>
+          <t>-22,8; 35,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-57,98; -6,73</t>
+          <t>-63,31; 36,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 15,41</t>
+          <t>-17,28; 31,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 9,96</t>
+          <t>-36,5; 6,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,41; 0,8</t>
+          <t>-58,14; 14,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 18,02</t>
+          <t>-0,06; 42,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 7,03</t>
+          <t>-22,38; 12,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-52,63; -11,88</t>
+          <t>-53,33; 5,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-38,6</t>
+          <t>-37,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-30,1</t>
+          <t>-20,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-34,54</t>
+          <t>-29,64</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 5,29</t>
+          <t>-6,04; 7,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 9,38</t>
+          <t>-6,82; 6,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-51,74; -21,29</t>
+          <t>-50,78; -22,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 9,64</t>
+          <t>-3,49; 10,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 13,76</t>
+          <t>1,76; 16,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,78; -14,14</t>
+          <t>-36,37; -4,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 4,38</t>
+          <t>-2,74; 7,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 9,09</t>
+          <t>-0,97; 8,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-44,57; -24,65</t>
+          <t>-39,74; -18,56</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,77%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>-0,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-54,41%</t>
+          <t>-55,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-46,51%</t>
+          <t>-33,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-50,82%</t>
+          <t>-46,02%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 7,93</t>
+          <t>-8,54; 11,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 14,17</t>
+          <t>-9,71; 9,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,68; -30,88</t>
+          <t>-74,27; -34,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 15,76</t>
+          <t>-5,27; 18,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 22,8</t>
+          <t>2,75; 27,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,29; -21,77</t>
+          <t>-56,56; -6,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 6,81</t>
+          <t>-4,11; 11,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 14,03</t>
+          <t>-1,33; 14,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-65,58; -36,21</t>
+          <t>-60,22; -28,73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-42,8</t>
+          <t>-40,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-33,73</t>
+          <t>-29,01</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-38,91</t>
+          <t>-34,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 7,05</t>
+          <t>-7,35; 10,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 6,22</t>
+          <t>-6,26; 11,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-53,76; -29,38</t>
+          <t>-55,01; -23,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 12,19</t>
+          <t>-3,73; 14,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 9,13</t>
+          <t>-4,44; 15,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-46,59; -17,73</t>
+          <t>-45,05; -7,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 7,88</t>
+          <t>-2,78; 10,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 5,13</t>
+          <t>-2,29; 10,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-47,72; -28,68</t>
+          <t>-46,74; -22,16</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,99%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-58,63%</t>
+          <t>-56,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-47,46%</t>
+          <t>-44,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-54,01%</t>
+          <t>-50,81%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 10,3</t>
+          <t>-9,56; 16,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 8,82</t>
+          <t>-7,92; 17,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-72,17; -41,79</t>
+          <t>-74,27; -32,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 18,47</t>
+          <t>-5,25; 25,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 13,75</t>
+          <t>-6,02; 25,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,19; -24,86</t>
+          <t>-65,56; -9,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 11,12</t>
+          <t>-3,85; 15,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 7,35</t>
+          <t>-3,12; 16,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,4; -39,93</t>
+          <t>-66,61; -32,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-33,17</t>
+          <t>-39,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-26,66</t>
+          <t>-41,57</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-30,22</t>
+          <t>-40,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 5,79</t>
+          <t>-10,58; 5,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 4,65</t>
+          <t>-9,18; 7,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-39,88; -25,44</t>
+          <t>-51,55; -21,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 6,68</t>
+          <t>-5,19; 10,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 6,82</t>
+          <t>-8,35; 8,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-35,03; -17,71</t>
+          <t>-55,91; -23,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,86</t>
+          <t>-5,53; 6,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,55</t>
+          <t>-6,42; 5,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-36,18; -23,79</t>
+          <t>-51,27; -27,94</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>-0,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-51,54%</t>
+          <t>-53,8%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-42,44%</t>
+          <t>-55,54%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-47,51%</t>
+          <t>-54,54%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 9,29</t>
+          <t>-13,74; 7,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 7,54</t>
+          <t>-12,1; 10,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-61,68; -39,84</t>
+          <t>-69,31; -30,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 10,87</t>
+          <t>-6,63; 15,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 11,3</t>
+          <t>-10,58; 11,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,7; -28,53</t>
+          <t>-74,6; -32,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 7,83</t>
+          <t>-7,25; 8,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 7,31</t>
+          <t>-8,3; 7,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,47; -37,96</t>
+          <t>-68,42; -38,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-33,17</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-26,66</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-30,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 5,99</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 4,78</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-40,21; -24,59</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 6,6</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 6,8</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-34,87; -16,8</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 4,98</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 4,38</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-35,7; -24,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-51,54%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-42,44%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-47,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 9,67</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 7,55</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-60,95; -38,31</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 10,9</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 11,23</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-54,86; -27,13</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 8,1</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 7,02</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-55,72; -38,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP18A03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A03-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 22,68</t>
+          <t>2,5; 22,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 10,78</t>
+          <t>-8,47; 11,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 11,3</t>
+          <t>-24,07; 9,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 12,32</t>
+          <t>-9,33; 11,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 2,38</t>
+          <t>-17,93; 2,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 6,32</t>
+          <t>-30,58; 6,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 14,91</t>
+          <t>-1,4; 14,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 4,52</t>
+          <t>-10,31; 4,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 2,77</t>
+          <t>-21,4; 2,71</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 81,25</t>
+          <t>5,67; 74,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 35,01</t>
+          <t>-22,17; 38,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,31; 36,32</t>
+          <t>-64,32; 27,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 31,68</t>
+          <t>-18,76; 29,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,5; 6,27</t>
+          <t>-35,97; 6,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,14; 14,43</t>
+          <t>-63,35; 19,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 42,2</t>
+          <t>-3,12; 41,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 12,87</t>
+          <t>-23,48; 11,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-53,33; 5,12</t>
+          <t>-52,41; 7,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 7,32</t>
+          <t>-5,93; 7,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 6,19</t>
+          <t>-7,08; 7,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-50,78; -22,68</t>
+          <t>-49,56; -22,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 10,78</t>
+          <t>-3,84; 10,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 16,21</t>
+          <t>1,28; 15,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,37; -4,06</t>
+          <t>-35,54; -2,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 7,03</t>
+          <t>-2,91; 7,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 8,72</t>
+          <t>-1,48; 9,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-39,74; -18,56</t>
+          <t>-39,56; -18,86</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 11,5</t>
+          <t>-8,38; 11,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 9,69</t>
+          <t>-10,07; 11,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,27; -34,51</t>
+          <t>-72,23; -33,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 18,71</t>
+          <t>-5,84; 18,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 27,75</t>
+          <t>1,87; 27,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,56; -6,17</t>
+          <t>-56,34; -3,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 11,22</t>
+          <t>-4,46; 11,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 14,19</t>
+          <t>-2,13; 14,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,22; -28,73</t>
+          <t>-60,72; -29,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 10,64</t>
+          <t>-7,05; 11,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 11,9</t>
+          <t>-5,66; 12,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-55,01; -23,45</t>
+          <t>-54,94; -23,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 14,73</t>
+          <t>-4,61; 15,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 15,12</t>
+          <t>-4,18; 15,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,05; -7,31</t>
+          <t>-44,85; -9,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 10,05</t>
+          <t>-3,45; 10,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 10,7</t>
+          <t>-1,89; 10,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-46,74; -22,16</t>
+          <t>-46,84; -22,97</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 16,36</t>
+          <t>-9,23; 17,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 17,52</t>
+          <t>-7,26; 18,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,27; -32,32</t>
+          <t>-75,18; -33,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 25,04</t>
+          <t>-6,47; 25,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 25,15</t>
+          <t>-5,96; 26,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,56; -9,21</t>
+          <t>-67,21; -14,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 15,36</t>
+          <t>-4,76; 15,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 16,34</t>
+          <t>-2,62; 16,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,61; -32,77</t>
+          <t>-67,09; -34,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 5,34</t>
+          <t>-9,48; 6,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 7,3</t>
+          <t>-9,59; 8,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-51,55; -21,84</t>
+          <t>-53,51; -23,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 10,78</t>
+          <t>-5,38; 10,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 8,2</t>
+          <t>-8,23; 8,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-55,91; -23,21</t>
+          <t>-55,88; -20,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 6,13</t>
+          <t>-5,75; 5,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 5,43</t>
+          <t>-6,13; 5,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-51,27; -27,94</t>
+          <t>-50,8; -28,38</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 7,66</t>
+          <t>-12,03; 9,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 10,68</t>
+          <t>-12,15; 11,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-69,31; -30,97</t>
+          <t>-70,8; -33,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 15,27</t>
+          <t>-6,96; 14,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 11,63</t>
+          <t>-10,38; 11,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-74,6; -32,47</t>
+          <t>-73,25; -29,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 8,34</t>
+          <t>-7,4; 7,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 7,54</t>
+          <t>-7,97; 7,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-68,42; -38,46</t>
+          <t>-67,57; -39,66</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,99</t>
+          <t>-3,14; 5,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 4,78</t>
+          <t>-3,6; 5,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-40,21; -24,59</t>
+          <t>-40,4; -25,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,6</t>
+          <t>-2,11; 7,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 6,8</t>
+          <t>-2,3; 6,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-34,87; -16,8</t>
+          <t>-35,94; -18,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,98</t>
+          <t>-1,02; 5,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,38</t>
+          <t>-1,61; 4,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-35,7; -24,4</t>
+          <t>-35,87; -24,09</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 9,67</t>
+          <t>-4,69; 9,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 7,55</t>
+          <t>-5,34; 8,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-60,95; -38,31</t>
+          <t>-62,14; -39,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 10,9</t>
+          <t>-3,2; 11,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 11,23</t>
+          <t>-3,53; 11,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-54,86; -27,13</t>
+          <t>-56,29; -29,37</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 8,1</t>
+          <t>-1,55; 8,42</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 7,02</t>
+          <t>-2,49; 7,07</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-55,72; -38,89</t>
+          <t>-55,53; -38,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A03-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-7,19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-12,68</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>12,36</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>1,13</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-8,3</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-7,19</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,59</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>-9,53</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 22,2</t>
+          <t>-9,3; 12,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 11,01</t>
+          <t>-17,39; 2,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 9,22</t>
+          <t>-30,06; 6,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 11,66</t>
+          <t>2,73; 23,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 2,82</t>
+          <t>-9,28; 10,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,58; 6,96</t>
+          <t>-23,09; 11,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 14,62</t>
+          <t>-0,45; 14,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 4,01</t>
+          <t>-9,83; 5,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 2,71</t>
+          <t>-21,68; 4,47</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-16,06%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-28,32%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>35,43%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>3,25%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-23,79%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,43%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-16,06%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-28,13%</t>
+          <t>-18,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-26,25%</t>
+          <t>-24,02%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,67; 74,87</t>
+          <t>-17,67; 32,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 38,5</t>
+          <t>-35,6; 6,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,32; 27,32</t>
+          <t>-61,84; 17,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 29,2</t>
+          <t>6,87; 78,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,97; 6,34</t>
+          <t>-23,02; 36,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,35; 19,24</t>
+          <t>-60,37; 36,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 41,22</t>
+          <t>-0,76; 42,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,48; 11,47</t>
+          <t>-22,56; 15,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-52,41; 7,01</t>
+          <t>-52,47; 12,96</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,71</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8,84</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-21,2</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,41</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-0,42</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-37,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,71</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8,84</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,62</t>
+          <t>-37,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-29,64</t>
+          <t>-29,89</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 7,7</t>
+          <t>-4,24; 10,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 7,33</t>
+          <t>1,88; 16,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-49,56; -22,21</t>
+          <t>-36,08; -4,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 10,76</t>
+          <t>-6,79; 6,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 15,98</t>
+          <t>-7,47; 6,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,54; -2,63</t>
+          <t>-49,77; -22,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 7,14</t>
+          <t>-2,78; 7,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 9,1</t>
+          <t>-0,69; 9,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-39,56; -18,86</t>
+          <t>-40,13; -19,41</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14,44%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-34,65%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,61%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-0,62%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-55,93%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,07%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>14,44%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-33,7%</t>
+          <t>-55,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-46,02%</t>
+          <t>-46,41%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 11,95</t>
+          <t>-6,73; 18,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 11,4</t>
+          <t>2,9; 28,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,23; -33,73</t>
+          <t>-57,89; -8,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 18,31</t>
+          <t>-9,5; 10,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 27,95</t>
+          <t>-10,49; 10,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,34; -3,52</t>
+          <t>-72,84; -33,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 11,55</t>
+          <t>-4,25; 11,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 14,82</t>
+          <t>-0,99; 15,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,72; -29,82</t>
+          <t>-61,36; -30,03</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,54</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,52</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-26,12</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>1,54</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>3,1</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-40,29</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,54</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,52</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-29,01</t>
+          <t>-39,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-34,96</t>
+          <t>-33,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 11,19</t>
+          <t>-4,53; 14,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 12,17</t>
+          <t>-3,86; 14,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-54,94; -23,67</t>
+          <t>-43,12; -2,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 15,47</t>
+          <t>-7,79; 10,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 15,24</t>
+          <t>-5,48; 11,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,85; -9,05</t>
+          <t>-53,97; -21,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 10,07</t>
+          <t>-3,23; 10,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 10,91</t>
+          <t>-1,91; 10,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-46,84; -22,97</t>
+          <t>-45,58; -20,13</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-39,81%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>2,14%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>4,32%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-56,15%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>8,45%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,41%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-44,22%</t>
+          <t>-54,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-50,81%</t>
+          <t>-48,05%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 17,02</t>
+          <t>-6,26; 25,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 18,64</t>
+          <t>-5,55; 24,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,18; -33,48</t>
+          <t>-64,62; -3,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 25,98</t>
+          <t>-10,0; 16,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 26,12</t>
+          <t>-6,99; 17,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-67,21; -14,95</t>
+          <t>-73,1; -31,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 15,55</t>
+          <t>-4,52; 15,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 16,98</t>
+          <t>-2,64; 16,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-67,09; -34,11</t>
+          <t>-64,43; -30,23</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-41,03</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-1,99</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,72</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-39,64</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-41,57</t>
+          <t>-38,93</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-40,5</t>
+          <t>-39,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 6,39</t>
+          <t>-6,11; 10,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 8,06</t>
+          <t>-7,59; 8,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-53,51; -23,87</t>
+          <t>-57,39; -22,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 10,27</t>
+          <t>-10,79; 5,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 8,13</t>
+          <t>-9,08; 7,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-55,88; -20,87</t>
+          <t>-53,73; -21,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 5,64</t>
+          <t>-5,59; 5,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 5,21</t>
+          <t>-6,32; 5,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-50,8; -28,38</t>
+          <t>-50,68; -28,22</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-0,17%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-54,82%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-2,7%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-0,98%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-53,8%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>3,26%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-55,54%</t>
+          <t>-52,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-54,54%</t>
+          <t>-53,66%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 9,24</t>
+          <t>-7,63; 14,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 11,77</t>
+          <t>-9,67; 12,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-70,8; -33,3</t>
+          <t>-75,83; -30,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 14,23</t>
+          <t>-14,16; 7,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 11,4</t>
+          <t>-11,6; 10,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-73,25; -29,44</t>
+          <t>-70,82; -28,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 7,97</t>
+          <t>-7,2; 7,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 7,19</t>
+          <t>-8,31; 7,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-67,57; -39,66</t>
+          <t>-67,26; -38,66</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-25,77</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>1,47</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0,53</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-33,17</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-26,66</t>
+          <t>-32,33</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-30,22</t>
+          <t>-29,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 5,55</t>
+          <t>-2,24; 6,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 5,09</t>
+          <t>-2,03; 6,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-40,4; -25,01</t>
+          <t>-34,43; -16,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 7,16</t>
+          <t>-2,68; 5,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 6,81</t>
+          <t>-4,07; 4,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-35,94; -18,33</t>
+          <t>-39,51; -24,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 5,16</t>
+          <t>-1,24; 4,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 4,35</t>
+          <t>-1,62; 4,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-35,87; -24,09</t>
+          <t>-35,59; -22,61</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-41,03%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>2,28%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>0,83%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-51,54%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-42,44%</t>
+          <t>-50,24%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-47,51%</t>
+          <t>-46,23%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 9,05</t>
+          <t>-3,44; 10,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 8,27</t>
+          <t>-3,09; 11,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-62,14; -39,46</t>
+          <t>-53,83; -27,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 11,94</t>
+          <t>-4,09; 9,29</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 11,24</t>
+          <t>-6,16; 7,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-56,29; -29,37</t>
+          <t>-60,72; -38,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 8,42</t>
+          <t>-1,9; 7,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 7,07</t>
+          <t>-2,5; 7,31</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-55,53; -38,32</t>
+          <t>-55,46; -36,14</t>
         </is>
       </c>
     </row>
